--- a/DATA_TRAIN.xlsx
+++ b/DATA_TRAIN.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\GitHub\otrointento\Datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9B81F0BD-392A-4801-9C30-92634B047BF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D98C4F1-1B54-4DEE-9D23-9E748D916C55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA_TRAIN" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,20 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DATA_TRAIN!$A$1:$R$301</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -121,7 +134,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -963,12 +976,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:R301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D57" sqref="D57"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D308" sqref="D308"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1506,7 +1519,7 @@
         <v xml:space="preserve">1 </v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>74</v>
       </c>
@@ -2037,7 +2050,7 @@
         <v xml:space="preserve">1 </v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>67</v>
       </c>
@@ -3925,7 +3938,7 @@
         <v xml:space="preserve">1 </v>
       </c>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>60</v>
       </c>
@@ -4043,7 +4056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>68</v>
       </c>
@@ -4279,7 +4292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>19</v>
       </c>
@@ -6462,7 +6475,7 @@
         <v xml:space="preserve">1 </v>
       </c>
     </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>27</v>
       </c>
@@ -6521,7 +6534,7 @@
         <v xml:space="preserve">1 </v>
       </c>
     </row>
-    <row r="95" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>67</v>
       </c>
@@ -6816,7 +6829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>71</v>
       </c>
@@ -7878,7 +7891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>73</v>
       </c>
@@ -8645,7 +8658,7 @@
         <v xml:space="preserve">1 </v>
       </c>
     </row>
-    <row r="131" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>70</v>
       </c>
@@ -9235,7 +9248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>27</v>
       </c>
@@ -9353,7 +9366,7 @@
         <v xml:space="preserve">1 </v>
       </c>
     </row>
-    <row r="143" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>76</v>
       </c>
@@ -9825,7 +9838,7 @@
         <v xml:space="preserve">1 </v>
       </c>
     </row>
-    <row r="151" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>47</v>
       </c>
@@ -12067,7 +12080,7 @@
         <v xml:space="preserve">1 </v>
       </c>
     </row>
-    <row r="189" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>71</v>
       </c>
@@ -13365,7 +13378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
         <v>77</v>
       </c>
@@ -13424,7 +13437,7 @@
         <v xml:space="preserve">1 </v>
       </c>
     </row>
-    <row r="212" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
         <v>48</v>
       </c>
@@ -13542,7 +13555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
         <v>40</v>
       </c>
@@ -14191,7 +14204,7 @@
         <v xml:space="preserve">1 </v>
       </c>
     </row>
-    <row r="225" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
         <v>65</v>
       </c>
@@ -15312,7 +15325,7 @@
         <v xml:space="preserve">1 </v>
       </c>
     </row>
-    <row r="244" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
         <v>61</v>
       </c>
@@ -15371,7 +15384,7 @@
         <v xml:space="preserve">1 </v>
       </c>
     </row>
-    <row r="245" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
         <v>75</v>
       </c>
@@ -15548,7 +15561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
         <v>67</v>
       </c>
@@ -15784,7 +15797,7 @@
         <v xml:space="preserve">1 </v>
       </c>
     </row>
-    <row r="252" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
         <v>82</v>
       </c>
@@ -16079,7 +16092,7 @@
         <v xml:space="preserve">1 </v>
       </c>
     </row>
-    <row r="257" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257" s="1">
         <v>64</v>
       </c>
@@ -16256,7 +16269,7 @@
         <v xml:space="preserve">1 </v>
       </c>
     </row>
-    <row r="260" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260" s="1">
         <v>78</v>
       </c>
@@ -17082,7 +17095,7 @@
         <v xml:space="preserve">1 </v>
       </c>
     </row>
-    <row r="274" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274" s="1">
         <v>31</v>
       </c>
@@ -17554,7 +17567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282" s="1">
         <v>56</v>
       </c>
@@ -18675,7 +18688,7 @@
         <v xml:space="preserve">1 </v>
       </c>
     </row>
-    <row r="301" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A301" s="1">
         <v>82</v>
       </c>
@@ -18735,15 +18748,10 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:R301">
+  <autoFilter ref="A1:R301" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="3">
       <filters>
         <filter val="universitario o tecnico incompleto"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="4">
-      <filters>
-        <filter val="Connected"/>
       </filters>
     </filterColumn>
   </autoFilter>
